--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:06:59+00:00</t>
+    <t>2022-09-01T16:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:21:50+00:00</t>
+    <t>2022-09-01T16:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:52:18+00:00</t>
+    <t>2022-09-01T17:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T17:06:09+00:00</t>
+    <t>2022-09-01T19:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T19:48:46+00:00</t>
+    <t>2022-09-27T22:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:39:14+00:00</t>
+    <t>2022-10-05T22:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T22:20:29+00:00</t>
+    <t>2022-10-11T16:14:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T16:14:09+00:00</t>
+    <t>2022-10-17T23:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -343,112 +346,114 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -466,44 +471,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T23:41:26+00:00</t>
+    <t>2022-10-27T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:03:31+00:00</t>
+    <t>2022-10-27T21:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:56:37+00:00</t>
+    <t>2022-10-28T23:08:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-28T23:08:22+00:00</t>
+    <t>2022-10-31T19:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T19:28:42+00:00</t>
+    <t>2022-11-01T15:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T15:06:35+00:00</t>
+    <t>2022-11-14T22:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:17:10+00:00</t>
+    <t>2022-11-14T22:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:35:25+00:00</t>
+    <t>2022-11-15T19:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T19:54:41+00:00</t>
+    <t>2022-11-16T00:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:01:38+00:00</t>
+    <t>2022-11-16T00:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:00+00:00</t>
+    <t>2022-11-16T00:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:48+00:00</t>
+    <t>2022-11-17T20:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T20:58:34+00:00</t>
+    <t>2022-11-17T21:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:31:13+00:00</t>
+    <t>2022-11-17T21:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:33:43+00:00</t>
+    <t>2022-11-17T22:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T22:26:34+00:00</t>
+    <t>2022-11-17T23:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T23:34:37+00:00</t>
+    <t>2022-11-18T20:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T20:35:33+00:00</t>
+    <t>2022-11-29T21:08:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/provider/CodeSystem/bc-license-status-code-system</t>
+    <t>https://terminology.hlth.gov.bc.ca/ProviderLocationRegistry/CodeSystem/bc-license-status-code-system</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T21:08:03+00:00</t>
+    <t>2022-11-30T16:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T16:25:41+00:00</t>
+    <t>2022-11-30T17:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T17:04:23+00:00</t>
+    <t>2022-11-30T20:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:32:54+00:00</t>
+    <t>2022-11-30T20:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:54:53+00:00</t>
+    <t>2022-11-30T21:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.9</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T21:55:32+00:00</t>
+    <t>2022-12-01T19:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:15:43+00:00</t>
+    <t>2022-12-12T23:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-12T23:25:59+00:00</t>
+    <t>2022-12-13T16:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T16:34:13+00:00</t>
+    <t>2022-12-13T17:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T17:07:06+00:00</t>
+    <t>2022-12-13T19:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T19:55:00+00:00</t>
+    <t>2022-12-16T17:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T17:01:23+00:00</t>
+    <t>2022-12-16T22:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T22:41:35+00:00</t>
+    <t>2022-12-19T22:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T22:53:23+00:00</t>
+    <t>2022-12-20T17:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T17:05:36+00:00</t>
+    <t>2022-12-20T21:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T21:28:56+00:00</t>
+    <t>2022-12-20T23:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:28:16+00:00</t>
+    <t>2022-12-20T23:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:39:21+00:00</t>
+    <t>2023-01-17T22:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T22:49:54+00:00</t>
+    <t>2023-01-23T22:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-code-system.xlsx
+++ b/CodeSystem-bc-license-status-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T22:02:59+00:00</t>
+    <t>2023-01-24T00:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
